--- a/2024_Syys/Web/self-assesment.xlsx
+++ b/2024_Syys/Web/self-assesment.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,12 +728,18 @@
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>20</v>
+      </c>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="n">
+        <v>25</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>10</v>
       </c>

--- a/2024_Syys/Web/self-assesment.xlsx
+++ b/2024_Syys/Web/self-assesment.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,8 +529,12 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>25</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
@@ -751,12 +755,18 @@
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>20</v>
+      </c>
       <c r="D17" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="n">
+        <v>25</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
